--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -3046,9 +3046,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{B1CD5D04-AD61-4709-BF60-EFC62F156AF5}" name="James Skitt" id="-1400019162" dateTime="2019-11-15T09:54:41"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -600,2107 +600,12 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B1CD5D04-AD61-4709-BF60-EFC62F156AF5}" diskRevisions="1" revisionId="191" version="3">
-  <header guid="{2E4815E4-5670-4B9D-B8C6-EDF9B47DBF72}" dateTime="2019-11-15T09:50:37" maxSheetId="2" userName="James Skitt" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B239C635-350B-4BE1-AABA-6393C7551552}" dateTime="2019-11-15T10:15:12" maxSheetId="2" userName="James Skitt" r:id="rId2" minRId="1" maxRId="160">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
   <header guid="{B1CD5D04-AD61-4709-BF60-EFC62F156AF5}" dateTime="2019-11-15T10:39:25" maxSheetId="2" userName="James Skitt" r:id="rId3" minRId="161" maxRId="191">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="1">
-    <nc r="C2" t="inlineStr">
-      <is>
-        <t>Series 6 30x60 extrusion 700mm long</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="2" sId="1">
-    <nc r="C3" t="inlineStr">
-      <is>
-        <t>Series 6 30x60 extrusion 700mm long</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="1">
-    <nc r="C4" t="inlineStr">
-      <is>
-        <t>Series 6 30x60 extrusion 700mm long</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="1">
-    <nc r="C5" t="inlineStr">
-      <is>
-        <t>Series 6 30x60 extrusion 700mm long</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="5" sId="1">
-    <nc r="C6" t="inlineStr">
-      <is>
-        <t>Series 6 30x30 extrusion 610mm long</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="6" sId="1">
-    <nc r="C7" t="inlineStr">
-      <is>
-        <t>Series 6 30x60 extrusion 660mm long</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="7" sId="1">
-    <nc r="C8" t="inlineStr">
-      <is>
-        <t>Series 6 30x30 extrusion 600mm long</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8" sId="1">
-    <nc r="E1" t="inlineStr">
-      <is>
-        <t>Purchased or Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="E1">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="9" sId="1">
-    <nc r="E2" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="A1:XFD1048576" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A1:XFD1048576" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="10" sId="1">
-    <nc r="E3" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="11" sId="1">
-    <nc r="E4" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="12" sId="1">
-    <nc r="E5" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="13" sId="1">
-    <nc r="E6" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="14" sId="1">
-    <nc r="E7" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="15" sId="1">
-    <nc r="E8" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="16" sId="1">
-    <nc r="E9" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="17" sId="1">
-    <nc r="E10" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="18" sId="1" ref="A11:XFD11" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A11:XFD11" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A11">
-        <v>10</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B11" t="inlineStr">
-        <is>
-          <t>476745 - Nema 23 
-Shaft End Plate</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C11" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D11">
-        <v>3</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="19" sId="1" ref="A11:XFD11" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A11:XFD11" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A11">
-        <v>11</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B11" t="inlineStr">
-        <is>
-          <t>476746 - Nema 23 End 
-Plate</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C11" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D11">
-        <v>3</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="20" sId="1" ref="A11:XFD11" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A11:XFD11" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A11">
-        <v>12</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B11" t="inlineStr">
-        <is>
-          <t>476747 - Nema 23 
-Motor Body</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C11" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D11">
-        <v>3</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="21" sId="1" ref="A11:XFD11" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A11:XFD11" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A11">
-        <v>13</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B11" t="inlineStr">
-        <is>
-          <t>476748 - Nema 23 
-Armature</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C11" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D11">
-        <v>3</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rcc rId="22" sId="1">
-    <nc r="E11" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="23" sId="1">
-    <nc r="E12" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="24" sId="1">
-    <nc r="E13" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="25" sId="1">
-    <nc r="E14" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="26" sId="1">
-    <nc r="E15" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="27" sId="1" ref="A17:XFD17" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A17:XFD17" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A17">
-        <v>20</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B17" t="inlineStr">
-        <is>
-          <t>Main Block</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C17" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D17">
-        <v>5</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="28" sId="1" ref="A17:XFD17" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A17:XFD17" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A17">
-        <v>21</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B17" t="inlineStr">
-        <is>
-          <t>Green End Cap</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C17" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D17">
-        <v>10</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="29" sId="1" ref="A17:XFD17" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A17:XFD17" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A17">
-        <v>22</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B17" t="inlineStr">
-        <is>
-          <t>Red End Cap</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C17" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D17">
-        <v>10</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rcc rId="30" sId="1">
-    <nc r="C18" t="inlineStr">
-      <is>
-        <t>MGN12H Linear Rail 550mm Long with Block</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="31" sId="1">
-    <nc r="E17" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="32" sId="1">
-    <nc r="E18" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="33" sId="1">
-    <nc r="E19" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="34" sId="1">
-    <nc r="E20" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="35" sId="1">
-    <nc r="E21" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="36" sId="1">
-    <nc r="E22" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="37" sId="1">
-    <nc r="E23" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="38" sId="1">
-    <nc r="E24" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="39" sId="1">
-    <nc r="E25" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="40" sId="1">
-    <nc r="E26" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="41" sId="1">
-    <nc r="E28" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="42" sId="1">
-    <nc r="E29" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="43" sId="1">
-    <nc r="E30" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="44" sId="1">
-    <nc r="E31" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="45" sId="1">
-    <nc r="C32" t="inlineStr">
-      <is>
-        <t>MGN12H Linear Rail 650mm Long with Block</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="46" sId="1">
-    <nc r="C33" t="inlineStr">
-      <is>
-        <t>Series 5 20x20 extrusion 660mm long</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="47" sId="1">
-    <nc r="E34" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="48" sId="1">
-    <nc r="E32" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="49" sId="1">
-    <nc r="E33" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="50" sId="1">
-    <nc r="E35" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="51" sId="1">
-    <nc r="E36" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="52" sId="1">
-    <nc r="E37" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="53" sId="1">
-    <nc r="E38" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="54" sId="1" ref="A40:XFD40" action="insertRow"/>
-  <rcc rId="55" sId="1">
-    <oc r="D39">
-      <v>12</v>
-    </oc>
-    <nc r="D39">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcc rId="56" sId="1">
-    <nc r="B40" t="inlineStr">
-      <is>
-        <t>Toothed Idler</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="57" sId="1">
-    <nc r="C40" t="inlineStr">
-      <is>
-        <t>20t toothed idler without teeth for 10mm 2GT belt</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="58" sId="1">
-    <nc r="C39" t="inlineStr">
-      <is>
-        <t>20t toothed idler with teeth for 10mm 2GT belt</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="59" sId="1">
-    <nc r="D40">
-      <v>4</v>
-    </nc>
-  </rcc>
-  <rcc rId="60" sId="1">
-    <nc r="E39" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="61" sId="1">
-    <nc r="E40" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="62" sId="1" ref="A41:XFD41" action="insertRow"/>
-  <rcc rId="63" sId="1">
-    <nc r="B41" t="inlineStr">
-      <is>
-        <t>2GT Belt</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="64" sId="1">
-    <nc r="D41" t="inlineStr">
-      <is>
-        <t>8m</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="65" sId="1">
-    <nc r="E41" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="66" sId="1">
-    <nc r="C27" t="inlineStr">
-      <is>
-        <t>Series 6 30x30 extrusion 600mm long</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="67" sId="1">
-    <nc r="E27" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="68" sId="1">
-    <nc r="C28" t="inlineStr">
-      <is>
-        <t>TR10 Threaded Rod 600mm Long</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="69" sId="1" ref="A42:XFD42" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A42:XFD42" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A42">
-        <v>46</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B42" t="inlineStr">
-        <is>
-          <t>mr95zz-cen</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C42" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D42">
-        <v>48</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="70" sId="1" ref="A42:XFD42" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A42:XFD42" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A42">
-        <v>47</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B42" t="inlineStr">
-        <is>
-          <t>mr95zz-ext</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C42" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D42">
-        <v>24</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="71" sId="1" ref="A42:XFD42" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A42:XFD42" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A42">
-        <v>48</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B42" t="inlineStr">
-        <is>
-          <t>mr95zz-int</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C42" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D42">
-        <v>24</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rcc rId="72" sId="1">
-    <nc r="E42" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="73" sId="1" ref="A43:XFD43" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A43:XFD43" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A43">
-        <v>50</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B43" t="inlineStr">
-        <is>
-          <t>flecha</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C43" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D43">
-        <v>2</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="74" sId="1" ref="A43:XFD43" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A43:XFD43" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A43">
-        <v>51</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B43" t="inlineStr">
-        <is>
-          <t>rotor</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C43" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D43">
-        <v>2</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="75" sId="1" ref="A43:XFD43" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A43:XFD43" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A43">
-        <v>52</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B43" t="inlineStr">
-        <is>
-          <t>Tapa motor</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C43" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D43">
-        <v>2</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="76" sId="1" ref="A43:XFD43" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A43:XFD43" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A43">
-        <v>53</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B43" t="inlineStr">
-        <is>
-          <t>Base motor</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C43" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D43">
-        <v>2</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rcc rId="77" sId="1">
-    <nc r="C43" t="inlineStr">
-      <is>
-        <t>20t Timing Belt pulley for 10mm belt</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="78" sId="1">
-    <nc r="E43" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="79" sId="1">
-    <nc r="E44" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="80" sId="1">
-    <nc r="E45" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="81" sId="1">
-    <nc r="E46" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="82" sId="1">
-    <nc r="E47" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="83" sId="1">
-    <nc r="E48" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="84" sId="1">
-    <nc r="E49" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="85" sId="1">
-    <nc r="E50" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="86" sId="1">
-    <nc r="E51" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="87" sId="1" ref="A52:XFD52" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A52:XFD52" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A52">
-        <v>63</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B52" t="inlineStr">
-        <is>
-          <t>MGN9</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C52" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D52">
-        <v>1</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rcc rId="88" sId="1">
-    <nc r="C52" t="inlineStr">
-      <is>
-        <t>MGN9H Linear Rail 600mm Long</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="89" sId="1">
-    <nc r="E52" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="90" sId="1">
-    <nc r="E53" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="91" sId="1">
-    <nc r="E54" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="92" sId="1">
-    <nc r="E55" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="93" sId="1">
-    <nc r="E56" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="94" sId="1">
-    <nc r="C56" t="inlineStr">
-      <is>
-        <t>Series 6 30x30 extrusion 85mm long</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="95" sId="1">
-    <nc r="E57" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="96" sId="1">
-    <nc r="E58" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="97" sId="1">
-    <nc r="E59" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="98" sId="1">
-    <nc r="E60" t="inlineStr">
-      <is>
-        <t>Machined</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="99" sId="1">
-    <nc r="E16" t="inlineStr">
-      <is>
-        <t>Machined</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="100" sId="1">
-    <nc r="E61" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="101" sId="1">
-    <nc r="E62" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="102" sId="1" ref="A64:XFD64" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A64:XFD64" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A64">
-        <v>76</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B64" t="inlineStr">
-        <is>
-          <t>W 605-2Z_PART2</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C64" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D64">
-        <v>2</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="103" sId="1" ref="A64:XFD64" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A64:XFD64" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A64">
-        <v>77</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B64" t="inlineStr">
-        <is>
-          <t>W 605-2Z_PART3</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C64" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D64">
-        <v>14</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="104" sId="1" ref="A64:XFD64" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A64:XFD64" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A64">
-        <v>78</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B64" t="inlineStr">
-        <is>
-          <t>W 605-2Z_PART4</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C64" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D64">
-        <v>14</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rcc rId="105" sId="1">
-    <nc r="C63" t="inlineStr">
-      <is>
-        <t>6052Z bearing</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="106" sId="1">
-    <nc r="E63" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="107" sId="1">
-    <nc r="E64" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="108" sId="1">
-    <nc r="E65" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="109" sId="1">
-    <nc r="E66" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="110" sId="1" xfDxf="1" dxf="1">
-    <nc r="C66" t="inlineStr">
-      <is>
-        <t>DB1C-A1AA</t>
-      </is>
-    </nc>
-    <ndxf>
-      <font>
-        <sz val="8"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="111" sId="1">
-    <nc r="E67" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="112" sId="1">
-    <nc r="E68" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="113" sId="1">
-    <nc r="E69" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="114" sId="1">
-    <nc r="E70" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="115" sId="1" ref="A71:XFD71" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A71:XFD71" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A71">
-        <v>86</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B71" t="inlineStr">
-        <is>
-          <t>Belt</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C71" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D71">
-        <v>4</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rcc rId="116" sId="1">
-    <nc r="E71" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="117" sId="1">
-    <nc r="E72" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="118" sId="1">
-    <nc r="E73" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="119" sId="1">
-    <nc r="E74" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="120" sId="1">
-    <nc r="E75" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="121" sId="1">
-    <nc r="E76" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="122" sId="1">
-    <nc r="E77" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="123" sId="1">
-    <nc r="E78" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="124" sId="1">
-    <nc r="E79" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="125" sId="1">
-    <nc r="E80" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="126" sId="1">
-    <nc r="E81" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="127" sId="1" ref="A83:XFD83" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A83:XFD83" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A83">
-        <v>99</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B83" t="inlineStr">
-        <is>
-          <t>e3d heaterblock</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C83" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D83">
-        <v>6</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="128" sId="1" ref="A83:XFD83" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A83:XFD83" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A83">
-        <v>100</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B83" t="inlineStr">
-        <is>
-          <t>e3d heat break</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C83" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D83">
-        <v>6</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="129" sId="1" ref="A83:XFD83" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A83:XFD83" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A83">
-        <v>101</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B83" t="inlineStr">
-        <is>
-          <t>e3d heatsink</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C83" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D83">
-        <v>6</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="130" sId="1" ref="A83:XFD83" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A83:XFD83" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A83">
-        <v>102</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B83" t="inlineStr">
-        <is>
-          <t>fan duct</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C83" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D83">
-        <v>6</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="131" sId="1" ref="A83:XFD83" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A83:XFD83" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A83">
-        <v>103</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B83" t="inlineStr">
-        <is>
-          <t>fan sub1</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C83" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D83">
-        <v>6</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rrc rId="132" sId="1" ref="A83:XFD83" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A83:XFD83" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A83">
-        <v>104</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B83" t="inlineStr">
-        <is>
-          <t>fan sub2</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C83" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D83">
-        <v>6</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rcc rId="133" sId="1">
-    <oc r="B82" t="inlineStr">
-      <is>
-        <t>e3d nozzle (0.4)</t>
-      </is>
-    </oc>
-    <nc r="B82" t="inlineStr">
-      <is>
-        <t>E3D Hotend V6</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="134" sId="1">
-    <nc r="E82" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="135" sId="1">
-    <nc r="E83" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="136" sId="1">
-    <nc r="E84" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="137" sId="1">
-    <nc r="E85" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="138" sId="1">
-    <nc r="E86" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="139" sId="1">
-    <nc r="E87" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="140" sId="1">
-    <nc r="E88" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="141" sId="1">
-    <nc r="E89" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="142" sId="1">
-    <nc r="E90" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="143" sId="1">
-    <nc r="E91" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="144" sId="1">
-    <nc r="E92" t="inlineStr">
-      <is>
-        <t>Printed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="145" sId="1">
-    <nc r="E93" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="146" sId="1">
-    <nc r="E94" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="147" sId="1">
-    <nc r="E95" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="148" sId="1">
-    <nc r="E96" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="149" sId="1">
-    <nc r="E97" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="150" sId="1">
-    <nc r="E98" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="151" sId="1">
-    <nc r="E99" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="152" sId="1">
-    <nc r="E100" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="153" sId="1">
-    <nc r="E101" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="154" sId="1">
-    <nc r="E102" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="155" sId="1">
-    <nc r="E103" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="156" sId="1">
-    <nc r="E104" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="157" sId="1" ref="A106:XFD106" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A106:XFD106" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <name val="Century Gothic"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A106">
-        <v>128</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="B106" t="inlineStr">
-        <is>
-          <t>Foot Threaded Part</t>
-        </is>
-      </nc>
-      <ndxf>
-        <alignment horizontal="left" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="C106" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="D106">
-        <v>4</v>
-      </nc>
-      <ndxf>
-        <alignment horizontal="center" vertical="center" wrapText="1"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-  <rcc rId="158" sId="1">
-    <oc r="B105" t="inlineStr">
-      <is>
-        <t>Foot Plastic</t>
-      </is>
-    </oc>
-    <nc r="B105" t="inlineStr">
-      <is>
-        <t>Foot</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="159" sId="1">
-    <nc r="C105" t="inlineStr">
-      <is>
-        <t>M6 mounting foot</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="160" sId="1">
-    <nc r="E105" t="inlineStr">
-      <is>
-        <t>Purchased</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
